--- a/Energie.xlsx
+++ b/Energie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasstinglhamber/Desktop/Github - Projects/ParticuleGameV2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EE0ED2-7642-8041-8AF5-24AB1B993BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AAD00EA-73B2-7649-9E52-7489635EA8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1500" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{7561177D-AFE9-A540-86E4-113EBEEF3F83}"/>
   </bookViews>
